--- a/develop_scripts/品种交割仓库编号及信息表.xlsx
+++ b/develop_scripts/品种交割仓库编号及信息表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="郑商所品种信息表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7363" uniqueCount="2659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7717" uniqueCount="2670">
   <si>
     <t>PTA</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -8464,6 +8464,41 @@
   <si>
     <t>0502</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓单单位</t>
+  </si>
+  <si>
+    <t>每张仓单=1手合约*5吨/手=5吨</t>
+  </si>
+  <si>
+    <t>每张仓单=1手合约*5吨/手=5吨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每张仓单=1手合约*10吨/手=10吨</t>
+  </si>
+  <si>
+    <t>每张仓单=1手合约*20吨/手=20吨</t>
+  </si>
+  <si>
+    <t>每张仓单=200手合约*100吨/手=20000吨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每张仓单=8手合约*5吨/手=40吨</t>
+  </si>
+  <si>
+    <t>每张仓单=4手合约*5吨/手=20吨</t>
+  </si>
+  <si>
+    <t>每张仓单=2手合约*10吨/手=20吨</t>
+  </si>
+  <si>
+    <t>每张仓单=1手合约*50吨/手=50吨</t>
+  </si>
+  <si>
+    <t>每张确认书=1手合约*20吨/手=20吨</t>
   </si>
 </sst>
 </file>
@@ -8876,20 +8911,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G354"/>
+  <dimension ref="A1:H354"/>
   <sheetViews>
-    <sheetView topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="D283" sqref="D283"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K320" sqref="K320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="9" style="13"/>
     <col min="5" max="5" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="73.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="22.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
@@ -8911,8 +8947,11 @@
       <c r="G1" s="2" t="s">
         <v>1055</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="2" t="s">
+        <v>2659</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -8934,8 +8973,11 @@
       <c r="G2" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H2" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -8957,8 +8999,11 @@
       <c r="G3" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -8980,8 +9025,11 @@
       <c r="G4" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -9003,8 +9051,11 @@
       <c r="G5" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -9026,8 +9077,11 @@
       <c r="G6" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -9049,8 +9103,11 @@
       <c r="G7" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -9072,8 +9129,11 @@
       <c r="G8" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H8" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -9095,8 +9155,11 @@
       <c r="G9" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H9" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -9118,8 +9181,11 @@
       <c r="G10" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H10" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -9141,8 +9207,11 @@
       <c r="G11" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H11" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -9164,8 +9233,11 @@
       <c r="G12" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H12" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -9187,8 +9259,11 @@
       <c r="G13" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H13" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -9210,8 +9285,11 @@
       <c r="G14" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H14" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -9233,8 +9311,11 @@
       <c r="G15" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H15" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -9256,8 +9337,11 @@
       <c r="G16" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H16" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -9279,8 +9363,11 @@
       <c r="G17" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H17" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -9302,8 +9389,11 @@
       <c r="G18" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H18" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -9325,8 +9415,11 @@
       <c r="G19" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H19" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -9348,8 +9441,11 @@
       <c r="G20" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H20" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -9371,8 +9467,11 @@
       <c r="G21" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H21" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -9394,8 +9493,11 @@
       <c r="G22" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H22" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -9417,8 +9519,11 @@
       <c r="G23" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H23" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -9440,8 +9545,11 @@
       <c r="G24" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H24" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -9463,8 +9571,11 @@
       <c r="G25" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H25" t="s">
+        <v>2661</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>1016</v>
       </c>
@@ -9486,8 +9597,11 @@
       <c r="G26" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H26" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>1016</v>
       </c>
@@ -9509,8 +9623,11 @@
       <c r="G27" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H27" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>1016</v>
       </c>
@@ -9532,8 +9649,11 @@
       <c r="G28" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H28" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>1016</v>
       </c>
@@ -9555,8 +9675,11 @@
       <c r="G29" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H29" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>1016</v>
       </c>
@@ -9578,8 +9701,11 @@
       <c r="G30" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H30" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>1016</v>
       </c>
@@ -9601,8 +9727,11 @@
       <c r="G31" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H31" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>1016</v>
       </c>
@@ -9624,8 +9753,11 @@
       <c r="G32" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H32" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>1016</v>
       </c>
@@ -9647,8 +9779,11 @@
       <c r="G33" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>1016</v>
       </c>
@@ -9670,8 +9805,11 @@
       <c r="G34" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>1016</v>
       </c>
@@ -9693,8 +9831,11 @@
       <c r="G35" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>1016</v>
       </c>
@@ -9716,8 +9857,11 @@
       <c r="G36" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>1016</v>
       </c>
@@ -9739,8 +9883,11 @@
       <c r="G37" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>1016</v>
       </c>
@@ -9762,8 +9909,11 @@
       <c r="G38" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>1016</v>
       </c>
@@ -9785,8 +9935,11 @@
       <c r="G39" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>1016</v>
       </c>
@@ -9808,8 +9961,11 @@
       <c r="G40" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H40" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>1016</v>
       </c>
@@ -9831,8 +9987,11 @@
       <c r="G41" t="s">
         <v>1124</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H41" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>1016</v>
       </c>
@@ -9854,8 +10013,11 @@
       <c r="G42" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H42" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>1016</v>
       </c>
@@ -9877,8 +10039,11 @@
       <c r="G43" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H43" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>1016</v>
       </c>
@@ -9900,8 +10065,11 @@
       <c r="G44" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H44" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>1016</v>
       </c>
@@ -9923,8 +10091,11 @@
       <c r="G45" t="s">
         <v>1148</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H45" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>1016</v>
       </c>
@@ -9946,8 +10117,11 @@
       <c r="G46" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H46" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>1016</v>
       </c>
@@ -9969,8 +10143,11 @@
       <c r="G47" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H47" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>1016</v>
       </c>
@@ -9992,8 +10169,11 @@
       <c r="G48" t="s">
         <v>1156</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H48" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>1016</v>
       </c>
@@ -10015,8 +10195,11 @@
       <c r="G49" t="s">
         <v>1151</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H49" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>1016</v>
       </c>
@@ -10038,8 +10221,11 @@
       <c r="G50" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H50" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>1016</v>
       </c>
@@ -10061,8 +10247,11 @@
       <c r="G51" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H51" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>1016</v>
       </c>
@@ -10084,8 +10273,11 @@
       <c r="G52" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H52" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>1016</v>
       </c>
@@ -10107,8 +10299,11 @@
       <c r="G53" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H53" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>1017</v>
       </c>
@@ -10130,8 +10325,11 @@
       <c r="G54" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H54" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>1017</v>
       </c>
@@ -10153,8 +10351,11 @@
       <c r="G55" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H55" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>1017</v>
       </c>
@@ -10176,8 +10377,11 @@
       <c r="G56" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H56" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>1017</v>
       </c>
@@ -10199,8 +10403,11 @@
       <c r="G57" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H57" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>1017</v>
       </c>
@@ -10222,8 +10429,11 @@
       <c r="G58" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H58" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>1017</v>
       </c>
@@ -10245,8 +10455,11 @@
       <c r="G59" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H59" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>1017</v>
       </c>
@@ -10268,8 +10481,11 @@
       <c r="G60" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H60" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>1017</v>
       </c>
@@ -10291,8 +10507,11 @@
       <c r="G61" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H61" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>1017</v>
       </c>
@@ -10314,8 +10533,11 @@
       <c r="G62" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H62" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>1017</v>
       </c>
@@ -10337,8 +10559,11 @@
       <c r="G63" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H63" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>1017</v>
       </c>
@@ -10360,8 +10585,11 @@
       <c r="G64" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H64" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>1017</v>
       </c>
@@ -10383,8 +10611,11 @@
       <c r="G65" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H65" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>1017</v>
       </c>
@@ -10406,8 +10637,11 @@
       <c r="G66" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H66" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>1018</v>
       </c>
@@ -10429,8 +10663,11 @@
       <c r="G67" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H67" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>1018</v>
       </c>
@@ -10452,8 +10689,11 @@
       <c r="G68" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H68" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>1018</v>
       </c>
@@ -10475,8 +10715,11 @@
       <c r="G69" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H69" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>1018</v>
       </c>
@@ -10498,8 +10741,11 @@
       <c r="G70" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H70" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>1018</v>
       </c>
@@ -10521,8 +10767,11 @@
       <c r="G71" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H71" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>1018</v>
       </c>
@@ -10544,8 +10793,11 @@
       <c r="G72" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H72" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>1018</v>
       </c>
@@ -10567,8 +10819,11 @@
       <c r="G73" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H73" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>1018</v>
       </c>
@@ -10590,8 +10845,11 @@
       <c r="G74" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H74" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>1018</v>
       </c>
@@ -10613,8 +10871,11 @@
       <c r="G75" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H75" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>1018</v>
       </c>
@@ -10636,8 +10897,11 @@
       <c r="G76" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H76" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>1018</v>
       </c>
@@ -10659,8 +10923,11 @@
       <c r="G77" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H77" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>1018</v>
       </c>
@@ -10682,8 +10949,11 @@
       <c r="G78" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H78" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>1018</v>
       </c>
@@ -10705,8 +10975,11 @@
       <c r="G79" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H79" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>1018</v>
       </c>
@@ -10728,8 +11001,11 @@
       <c r="G80" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H80" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>1019</v>
       </c>
@@ -10751,8 +11027,11 @@
       <c r="G81" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H81" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>1019</v>
       </c>
@@ -10774,8 +11053,11 @@
       <c r="G82" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H82" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>1019</v>
       </c>
@@ -10797,8 +11079,11 @@
       <c r="G83" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H83" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>1019</v>
       </c>
@@ -10820,8 +11105,11 @@
       <c r="G84" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H84" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>1019</v>
       </c>
@@ -10843,8 +11131,11 @@
       <c r="G85" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H85" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>1019</v>
       </c>
@@ -10866,8 +11157,11 @@
       <c r="G86" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H86" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>1019</v>
       </c>
@@ -10889,8 +11183,11 @@
       <c r="G87" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H87" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>1019</v>
       </c>
@@ -10912,8 +11209,11 @@
       <c r="G88" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H88" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>1019</v>
       </c>
@@ -10935,8 +11235,11 @@
       <c r="G89" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H89" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>1019</v>
       </c>
@@ -10958,8 +11261,11 @@
       <c r="G90" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H90" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>1019</v>
       </c>
@@ -10981,8 +11287,11 @@
       <c r="G91" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H91" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>1019</v>
       </c>
@@ -11004,8 +11313,11 @@
       <c r="G92" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H92" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>1019</v>
       </c>
@@ -11027,8 +11339,11 @@
       <c r="G93" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H93" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>1019</v>
       </c>
@@ -11050,8 +11365,11 @@
       <c r="G94" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H94" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>1019</v>
       </c>
@@ -11073,8 +11391,11 @@
       <c r="G95" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H95" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>1019</v>
       </c>
@@ -11096,8 +11417,11 @@
       <c r="G96" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H96" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>1019</v>
       </c>
@@ -11119,8 +11443,11 @@
       <c r="G97" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H97" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>1019</v>
       </c>
@@ -11142,8 +11469,11 @@
       <c r="G98" t="s">
         <v>1202</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H98" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>1019</v>
       </c>
@@ -11165,8 +11495,11 @@
       <c r="G99" t="s">
         <v>1196</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H99" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>1020</v>
       </c>
@@ -11188,8 +11521,11 @@
       <c r="G100" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H100" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>1020</v>
       </c>
@@ -11211,8 +11547,11 @@
       <c r="G101" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H101" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>1020</v>
       </c>
@@ -11234,8 +11573,11 @@
       <c r="G102" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H102" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>1020</v>
       </c>
@@ -11257,8 +11599,11 @@
       <c r="G103" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H103" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>1020</v>
       </c>
@@ -11280,8 +11625,11 @@
       <c r="G104" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H104" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>1020</v>
       </c>
@@ -11303,8 +11651,11 @@
       <c r="G105" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H105" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>1020</v>
       </c>
@@ -11326,8 +11677,11 @@
       <c r="G106" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H106" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>1021</v>
       </c>
@@ -11349,8 +11703,11 @@
       <c r="G107" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H107" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>1021</v>
       </c>
@@ -11372,8 +11729,11 @@
       <c r="G108" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H108" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>1021</v>
       </c>
@@ -11395,8 +11755,11 @@
       <c r="G109" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H109" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>1021</v>
       </c>
@@ -11418,8 +11781,11 @@
       <c r="G110" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H110" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>1021</v>
       </c>
@@ -11441,8 +11807,11 @@
       <c r="G111" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H111" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>1021</v>
       </c>
@@ -11464,8 +11833,11 @@
       <c r="G112" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H112" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>1021</v>
       </c>
@@ -11487,8 +11859,11 @@
       <c r="G113" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H113" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>1021</v>
       </c>
@@ -11510,8 +11885,11 @@
       <c r="G114" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H114" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>1021</v>
       </c>
@@ -11533,8 +11911,11 @@
       <c r="G115" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H115" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>1021</v>
       </c>
@@ -11556,8 +11937,11 @@
       <c r="G116" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H116" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>1021</v>
       </c>
@@ -11579,8 +11963,11 @@
       <c r="G117" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H117" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>1021</v>
       </c>
@@ -11602,8 +11989,11 @@
       <c r="G118" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H118" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>1023</v>
       </c>
@@ -11625,8 +12015,11 @@
       <c r="G119" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H119" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>1023</v>
       </c>
@@ -11648,8 +12041,11 @@
       <c r="G120" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H120" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>1023</v>
       </c>
@@ -11671,8 +12067,11 @@
       <c r="G121" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H121" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>1023</v>
       </c>
@@ -11694,8 +12093,11 @@
       <c r="G122" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H122" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>1023</v>
       </c>
@@ -11717,8 +12119,11 @@
       <c r="G123" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H123" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>1023</v>
       </c>
@@ -11740,8 +12145,11 @@
       <c r="G124" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H124" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>1025</v>
       </c>
@@ -11763,8 +12171,11 @@
       <c r="G125" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H125" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>1025</v>
       </c>
@@ -11786,8 +12197,11 @@
       <c r="G126" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H126" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>1025</v>
       </c>
@@ -11809,8 +12223,11 @@
       <c r="G127" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H127" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>1025</v>
       </c>
@@ -11832,8 +12249,11 @@
       <c r="G128" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H128" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>1025</v>
       </c>
@@ -11855,8 +12275,11 @@
       <c r="G129" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H129" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>1025</v>
       </c>
@@ -11878,8 +12301,11 @@
       <c r="G130" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H130" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>1025</v>
       </c>
@@ -11901,8 +12327,11 @@
       <c r="G131" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H131" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>1025</v>
       </c>
@@ -11924,8 +12353,11 @@
       <c r="G132" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H132" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>1025</v>
       </c>
@@ -11947,8 +12379,11 @@
       <c r="G133" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H133" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>1025</v>
       </c>
@@ -11970,8 +12405,11 @@
       <c r="G134" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H134" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>1025</v>
       </c>
@@ -11990,8 +12428,11 @@
       <c r="F135" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H135" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>1025</v>
       </c>
@@ -12010,8 +12451,11 @@
       <c r="F136" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H136" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>1025</v>
       </c>
@@ -12030,8 +12474,11 @@
       <c r="F137" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H137" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>1027</v>
       </c>
@@ -12053,8 +12500,11 @@
       <c r="G138" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H138" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>1027</v>
       </c>
@@ -12076,8 +12526,11 @@
       <c r="G139" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H139" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>1027</v>
       </c>
@@ -12099,8 +12552,11 @@
       <c r="G140" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H140" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>1027</v>
       </c>
@@ -12122,8 +12578,11 @@
       <c r="G141" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H141" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>1027</v>
       </c>
@@ -12145,8 +12604,11 @@
       <c r="G142" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H142" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>1027</v>
       </c>
@@ -12168,8 +12630,11 @@
       <c r="G143" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H143" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>1027</v>
       </c>
@@ -12191,8 +12656,11 @@
       <c r="G144" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H144" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>1027</v>
       </c>
@@ -12214,8 +12682,11 @@
       <c r="G145" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H145" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>1027</v>
       </c>
@@ -12237,8 +12708,11 @@
       <c r="G146" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H146" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>1027</v>
       </c>
@@ -12260,8 +12734,11 @@
       <c r="G147" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H147" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>1027</v>
       </c>
@@ -12283,8 +12760,11 @@
       <c r="G148" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H148" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>1027</v>
       </c>
@@ -12306,8 +12786,11 @@
       <c r="G149" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H149" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>1027</v>
       </c>
@@ -12329,8 +12812,11 @@
       <c r="G150" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H150" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>1027</v>
       </c>
@@ -12352,8 +12838,11 @@
       <c r="G151" t="s">
         <v>1318</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H151" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>1029</v>
       </c>
@@ -12375,8 +12864,11 @@
       <c r="G152" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H152" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>1029</v>
       </c>
@@ -12398,8 +12890,11 @@
       <c r="G153" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H153" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>1029</v>
       </c>
@@ -12421,8 +12916,11 @@
       <c r="G154" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H154" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>1029</v>
       </c>
@@ -12444,8 +12942,11 @@
       <c r="G155" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H155" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>1029</v>
       </c>
@@ -12467,8 +12968,11 @@
       <c r="G156" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H156" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>1029</v>
       </c>
@@ -12490,8 +12994,11 @@
       <c r="G157" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H157" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>1029</v>
       </c>
@@ -12513,8 +13020,11 @@
       <c r="G158" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H158" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>1029</v>
       </c>
@@ -12536,8 +13046,11 @@
       <c r="G159" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H159" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>1029</v>
       </c>
@@ -12559,8 +13072,11 @@
       <c r="G160" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H160" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>1029</v>
       </c>
@@ -12582,8 +13098,11 @@
       <c r="G161" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H161" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>1029</v>
       </c>
@@ -12605,8 +13124,11 @@
       <c r="G162" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H162" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>1029</v>
       </c>
@@ -12628,8 +13150,11 @@
       <c r="G163" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H163" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>1029</v>
       </c>
@@ -12651,8 +13176,11 @@
       <c r="G164" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H164" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>1029</v>
       </c>
@@ -12674,8 +13202,11 @@
       <c r="G165" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H165" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>1029</v>
       </c>
@@ -12697,8 +13228,11 @@
       <c r="G166" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H166" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>1029</v>
       </c>
@@ -12720,8 +13254,11 @@
       <c r="G167" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H167" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>1029</v>
       </c>
@@ -12743,8 +13280,11 @@
       <c r="G168" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H168" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>1029</v>
       </c>
@@ -12766,8 +13306,11 @@
       <c r="G169" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H169" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>1029</v>
       </c>
@@ -12789,8 +13332,11 @@
       <c r="G170" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H170" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>1029</v>
       </c>
@@ -12812,8 +13358,11 @@
       <c r="G171" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H171" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>1029</v>
       </c>
@@ -12835,8 +13384,11 @@
       <c r="G172" t="s">
         <v>1368</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H172" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>1029</v>
       </c>
@@ -12858,8 +13410,11 @@
       <c r="G173" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H173" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>1029</v>
       </c>
@@ -12881,8 +13436,11 @@
       <c r="G174" t="s">
         <v>1371</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H174" t="s">
+        <v>2662</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>1031</v>
       </c>
@@ -12904,8 +13462,11 @@
       <c r="G175" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H175" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>1031</v>
       </c>
@@ -12927,8 +13488,11 @@
       <c r="G176" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H176" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>1031</v>
       </c>
@@ -12950,8 +13514,11 @@
       <c r="G177" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H177" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>1031</v>
       </c>
@@ -12973,8 +13540,11 @@
       <c r="G178" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H178" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>1031</v>
       </c>
@@ -12996,8 +13566,11 @@
       <c r="G179" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H179" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>1031</v>
       </c>
@@ -13019,8 +13592,11 @@
       <c r="G180" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H180" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>1031</v>
       </c>
@@ -13042,8 +13618,11 @@
       <c r="G181" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H181" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>1031</v>
       </c>
@@ -13065,8 +13644,11 @@
       <c r="G182" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H182" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>1031</v>
       </c>
@@ -13088,8 +13670,11 @@
       <c r="G183" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H183" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>1031</v>
       </c>
@@ -13111,8 +13696,11 @@
       <c r="G184" t="s">
         <v>1136</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H184" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>1031</v>
       </c>
@@ -13131,8 +13719,11 @@
       <c r="F185" t="s">
         <v>1291</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H185" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>1031</v>
       </c>
@@ -13151,8 +13742,11 @@
       <c r="F186" t="s">
         <v>1293</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H186" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>1031</v>
       </c>
@@ -13171,8 +13765,11 @@
       <c r="F187" t="s">
         <v>1295</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H187" t="s">
+        <v>2660</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>1033</v>
       </c>
@@ -13194,8 +13791,11 @@
       <c r="G188" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H188" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>1033</v>
       </c>
@@ -13217,8 +13817,11 @@
       <c r="G189" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H189" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>1033</v>
       </c>
@@ -13240,8 +13843,11 @@
       <c r="G190" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H190" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>1033</v>
       </c>
@@ -13263,8 +13869,11 @@
       <c r="G191" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H191" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>1033</v>
       </c>
@@ -13286,8 +13895,11 @@
       <c r="G192" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H192" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>1033</v>
       </c>
@@ -13309,8 +13921,11 @@
       <c r="G193" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H193" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>1033</v>
       </c>
@@ -13332,8 +13947,11 @@
       <c r="G194" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H194" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>1033</v>
       </c>
@@ -13355,8 +13973,11 @@
       <c r="G195" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H195" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>1033</v>
       </c>
@@ -13378,8 +13999,11 @@
       <c r="G196" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H196" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>1033</v>
       </c>
@@ -13401,8 +14025,11 @@
       <c r="G197" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H197" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>1033</v>
       </c>
@@ -13424,8 +14051,11 @@
       <c r="G198" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H198" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>1033</v>
       </c>
@@ -13447,8 +14077,11 @@
       <c r="G199" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H199" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>1033</v>
       </c>
@@ -13470,8 +14103,11 @@
       <c r="G200" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H200" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>1033</v>
       </c>
@@ -13493,8 +14129,11 @@
       <c r="G201" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H201" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>1033</v>
       </c>
@@ -13516,8 +14155,11 @@
       <c r="G202" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H202" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>1033</v>
       </c>
@@ -13539,8 +14181,11 @@
       <c r="G203" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H203" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>1033</v>
       </c>
@@ -13562,8 +14207,11 @@
       <c r="G204" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H204" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>1033</v>
       </c>
@@ -13585,8 +14233,11 @@
       <c r="G205" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H205" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>1033</v>
       </c>
@@ -13608,8 +14259,11 @@
       <c r="G206" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H206" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>1033</v>
       </c>
@@ -13631,8 +14285,11 @@
       <c r="G207" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H207" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>1033</v>
       </c>
@@ -13654,8 +14311,11 @@
       <c r="G208" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H208" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>1033</v>
       </c>
@@ -13677,8 +14337,11 @@
       <c r="G209" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H209" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>1033</v>
       </c>
@@ -13700,8 +14363,11 @@
       <c r="G210" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H210" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>1033</v>
       </c>
@@ -13723,8 +14389,11 @@
       <c r="G211" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H211" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>1033</v>
       </c>
@@ -13746,8 +14415,11 @@
       <c r="G212" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H212" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>1033</v>
       </c>
@@ -13769,8 +14441,11 @@
       <c r="G213" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H213" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>1033</v>
       </c>
@@ -13792,8 +14467,11 @@
       <c r="G214" t="s">
         <v>1409</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H214" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>1033</v>
       </c>
@@ -13815,8 +14493,11 @@
       <c r="G215" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H215" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>1033</v>
       </c>
@@ -13838,8 +14519,11 @@
       <c r="G216" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H216" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>1033</v>
       </c>
@@ -13861,8 +14545,11 @@
       <c r="G217" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H217" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>1035</v>
       </c>
@@ -13884,8 +14571,11 @@
       <c r="G218" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H218" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>1035</v>
       </c>
@@ -13907,8 +14597,11 @@
       <c r="G219" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H219" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>1035</v>
       </c>
@@ -13930,8 +14623,11 @@
       <c r="G220" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H220" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>1035</v>
       </c>
@@ -13953,8 +14649,11 @@
       <c r="G221" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H221" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>1035</v>
       </c>
@@ -13976,8 +14675,11 @@
       <c r="G222" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H222" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>1035</v>
       </c>
@@ -13999,8 +14701,11 @@
       <c r="G223" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H223" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>1035</v>
       </c>
@@ -14022,8 +14727,11 @@
       <c r="G224" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H224" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>1035</v>
       </c>
@@ -14045,8 +14753,11 @@
       <c r="G225" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H225" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>1035</v>
       </c>
@@ -14068,8 +14779,11 @@
       <c r="G226" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H226" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>1035</v>
       </c>
@@ -14091,8 +14805,11 @@
       <c r="G227" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H227" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>1035</v>
       </c>
@@ -14114,8 +14831,11 @@
       <c r="G228" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H228" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>1035</v>
       </c>
@@ -14137,8 +14857,11 @@
       <c r="G229" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H229" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>1035</v>
       </c>
@@ -14160,8 +14883,11 @@
       <c r="G230" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H230" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>1035</v>
       </c>
@@ -14183,8 +14909,11 @@
       <c r="G231" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H231" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>1035</v>
       </c>
@@ -14206,8 +14935,11 @@
       <c r="G232" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H232" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>1035</v>
       </c>
@@ -14229,8 +14961,11 @@
       <c r="G233" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H233" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>1035</v>
       </c>
@@ -14252,8 +14987,11 @@
       <c r="G234" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H234" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>1035</v>
       </c>
@@ -14275,8 +15013,11 @@
       <c r="G235" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H235" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>1035</v>
       </c>
@@ -14298,8 +15039,11 @@
       <c r="G236" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H236" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>1035</v>
       </c>
@@ -14321,8 +15065,11 @@
       <c r="G237" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H237" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>1035</v>
       </c>
@@ -14344,8 +15091,11 @@
       <c r="G238" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H238" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>1035</v>
       </c>
@@ -14367,8 +15117,11 @@
       <c r="G239" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H239" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>1035</v>
       </c>
@@ -14390,8 +15143,11 @@
       <c r="G240" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H240" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>1035</v>
       </c>
@@ -14413,8 +15169,11 @@
       <c r="G241" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H241" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>1035</v>
       </c>
@@ -14436,8 +15195,11 @@
       <c r="G242" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H242" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>1035</v>
       </c>
@@ -14459,8 +15221,11 @@
       <c r="G243" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H243" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>1035</v>
       </c>
@@ -14482,8 +15247,11 @@
       <c r="G244" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H244" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>1035</v>
       </c>
@@ -14505,8 +15273,11 @@
       <c r="G245" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H245" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>1035</v>
       </c>
@@ -14528,8 +15299,11 @@
       <c r="G246" t="s">
         <v>1121</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H246" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>1035</v>
       </c>
@@ -14551,8 +15325,11 @@
       <c r="G247" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H247" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>1035</v>
       </c>
@@ -14574,8 +15351,11 @@
       <c r="G248" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H248" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>1035</v>
       </c>
@@ -14597,8 +15377,11 @@
       <c r="G249" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H249" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>1035</v>
       </c>
@@ -14620,8 +15403,11 @@
       <c r="G250" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H250" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>1035</v>
       </c>
@@ -14643,8 +15429,11 @@
       <c r="G251" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H251" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>1035</v>
       </c>
@@ -14666,8 +15455,11 @@
       <c r="G252" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H252" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>1035</v>
       </c>
@@ -14689,8 +15481,11 @@
       <c r="G253" t="s">
         <v>1396</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H253" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>1035</v>
       </c>
@@ -14712,8 +15507,11 @@
       <c r="G254" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H254" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>1035</v>
       </c>
@@ -14735,8 +15533,11 @@
       <c r="G255" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H255" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>1035</v>
       </c>
@@ -14758,8 +15559,11 @@
       <c r="G256" t="s">
         <v>1480</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H256" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>1037</v>
       </c>
@@ -14781,8 +15585,11 @@
       <c r="G257" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H257" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>1037</v>
       </c>
@@ -14804,8 +15611,11 @@
       <c r="G258" t="s">
         <v>1376</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H258" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>1037</v>
       </c>
@@ -14827,8 +15637,11 @@
       <c r="G259" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H259" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>1037</v>
       </c>
@@ -14850,8 +15663,11 @@
       <c r="G260" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H260" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>1037</v>
       </c>
@@ -14873,8 +15689,11 @@
       <c r="G261" t="s">
         <v>1383</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H261" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>1037</v>
       </c>
@@ -14896,8 +15715,11 @@
       <c r="G262" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H262" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>1037</v>
       </c>
@@ -14919,8 +15741,11 @@
       <c r="G263" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H263" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>1037</v>
       </c>
@@ -14942,8 +15767,11 @@
       <c r="G264" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H264" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>1037</v>
       </c>
@@ -14965,8 +15793,11 @@
       <c r="G265" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H265" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>1037</v>
       </c>
@@ -14988,8 +15819,11 @@
       <c r="G266" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H266" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>1037</v>
       </c>
@@ -15011,8 +15845,11 @@
       <c r="G267" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H267" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>1037</v>
       </c>
@@ -15034,8 +15871,11 @@
       <c r="G268" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H268" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>1037</v>
       </c>
@@ -15057,8 +15897,11 @@
       <c r="G269" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H269" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>1037</v>
       </c>
@@ -15080,8 +15923,11 @@
       <c r="G270" t="s">
         <v>1199</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H270" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>1037</v>
       </c>
@@ -15103,8 +15949,11 @@
       <c r="G271" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H271" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>1037</v>
       </c>
@@ -15126,8 +15975,11 @@
       <c r="G272" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H272" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>1037</v>
       </c>
@@ -15149,8 +16001,11 @@
       <c r="G273" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H273" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>1037</v>
       </c>
@@ -15172,8 +16027,11 @@
       <c r="G274" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H274" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>1037</v>
       </c>
@@ -15195,8 +16053,11 @@
       <c r="G275" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H275" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>1037</v>
       </c>
@@ -15218,8 +16079,11 @@
       <c r="G276" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H276" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>1037</v>
       </c>
@@ -15241,8 +16105,11 @@
       <c r="G277" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H277" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>1041</v>
       </c>
@@ -15264,8 +16131,11 @@
       <c r="G278" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H278" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>1041</v>
       </c>
@@ -15287,8 +16157,11 @@
       <c r="G279" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H279" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>1041</v>
       </c>
@@ -15310,8 +16183,11 @@
       <c r="G280" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H280" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>1041</v>
       </c>
@@ -15333,8 +16209,11 @@
       <c r="G281" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H281" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>1041</v>
       </c>
@@ -15356,8 +16235,11 @@
       <c r="G282" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H282" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>1041</v>
       </c>
@@ -15379,8 +16261,11 @@
       <c r="G283" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H283" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>1041</v>
       </c>
@@ -15402,8 +16287,11 @@
       <c r="G284" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H284" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>1041</v>
       </c>
@@ -15425,8 +16313,11 @@
       <c r="G285" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H285" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>1041</v>
       </c>
@@ -15448,8 +16339,11 @@
       <c r="G286" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H286" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>1041</v>
       </c>
@@ -15471,8 +16365,11 @@
       <c r="G287" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H287" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>1041</v>
       </c>
@@ -15494,8 +16391,11 @@
       <c r="G288" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H288" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>1041</v>
       </c>
@@ -15517,8 +16417,11 @@
       <c r="G289" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H289" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>1041</v>
       </c>
@@ -15540,8 +16443,11 @@
       <c r="G290" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H290" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>1041</v>
       </c>
@@ -15563,8 +16469,11 @@
       <c r="G291" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H291" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>1041</v>
       </c>
@@ -15586,8 +16495,11 @@
       <c r="G292" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H292" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>1041</v>
       </c>
@@ -15609,8 +16521,11 @@
       <c r="G293" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H293" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>1041</v>
       </c>
@@ -15632,8 +16547,11 @@
       <c r="G294" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H294" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>1041</v>
       </c>
@@ -15655,8 +16573,11 @@
       <c r="G295" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H295" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>1043</v>
       </c>
@@ -15675,8 +16596,11 @@
       <c r="F296" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H296" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>1043</v>
       </c>
@@ -15695,8 +16619,11 @@
       <c r="F297" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H297" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>1043</v>
       </c>
@@ -15718,8 +16645,11 @@
       <c r="G298" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H298" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>1043</v>
       </c>
@@ -15738,8 +16668,11 @@
       <c r="F299" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H299" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>1043</v>
       </c>
@@ -15758,8 +16691,11 @@
       <c r="F300" t="s">
         <v>1580</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H300" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>1043</v>
       </c>
@@ -15778,8 +16714,11 @@
       <c r="F301" t="s">
         <v>1582</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H301" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>1043</v>
       </c>
@@ -15798,8 +16737,11 @@
       <c r="F302" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H302" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>1043</v>
       </c>
@@ -15818,8 +16760,11 @@
       <c r="F303" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H303" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>1043</v>
       </c>
@@ -15838,8 +16783,11 @@
       <c r="F304" t="s">
         <v>1588</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H304" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>1043</v>
       </c>
@@ -15858,8 +16806,11 @@
       <c r="F305" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H305" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>1043</v>
       </c>
@@ -15878,8 +16829,11 @@
       <c r="F306" t="s">
         <v>1592</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H306" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>1043</v>
       </c>
@@ -15898,8 +16852,11 @@
       <c r="F307" t="s">
         <v>1594</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H307" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>1045</v>
       </c>
@@ -15918,8 +16875,11 @@
       <c r="F308" t="s">
         <v>1579</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H308" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>1045</v>
       </c>
@@ -15941,8 +16901,11 @@
       <c r="G309" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H309" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>1045</v>
       </c>
@@ -15961,8 +16924,11 @@
       <c r="F310" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H310" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>1045</v>
       </c>
@@ -15981,8 +16947,11 @@
       <c r="F311" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H311" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>1045</v>
       </c>
@@ -16004,8 +16973,11 @@
       <c r="G312" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H312" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>1045</v>
       </c>
@@ -16027,8 +16999,11 @@
       <c r="G313" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H313" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>1045</v>
       </c>
@@ -16050,8 +17025,11 @@
       <c r="G314" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H314" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>1045</v>
       </c>
@@ -16073,8 +17051,11 @@
       <c r="G315" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H315" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>1045</v>
       </c>
@@ -16096,8 +17077,11 @@
       <c r="G316" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H316" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>1045</v>
       </c>
@@ -16119,8 +17103,11 @@
       <c r="G317" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H317" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>1045</v>
       </c>
@@ -16142,8 +17129,11 @@
       <c r="G318" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H318" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>1045</v>
       </c>
@@ -16165,8 +17155,11 @@
       <c r="G319" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H319" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>1045</v>
       </c>
@@ -16188,8 +17181,11 @@
       <c r="G320" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H320" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>1045</v>
       </c>
@@ -16208,8 +17204,11 @@
       <c r="F321" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H321" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>1045</v>
       </c>
@@ -16231,8 +17230,11 @@
       <c r="G322" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H322" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>1045</v>
       </c>
@@ -16251,8 +17253,11 @@
       <c r="F323" t="s">
         <v>1586</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H323" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>1045</v>
       </c>
@@ -16274,8 +17279,11 @@
       <c r="G324" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H324" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>1045</v>
       </c>
@@ -16294,8 +17302,11 @@
       <c r="F325" t="s">
         <v>1590</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H325" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>1045</v>
       </c>
@@ -16317,8 +17328,11 @@
       <c r="G326" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H326" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>1045</v>
       </c>
@@ -16340,8 +17354,11 @@
       <c r="G327" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H327" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>1047</v>
       </c>
@@ -16363,8 +17380,11 @@
       <c r="G328" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H328" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>1047</v>
       </c>
@@ -16386,8 +17406,11 @@
       <c r="G329" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H329" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>1047</v>
       </c>
@@ -16409,8 +17432,11 @@
       <c r="G330" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H330" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>1047</v>
       </c>
@@ -16432,8 +17458,11 @@
       <c r="G331" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H331" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>1047</v>
       </c>
@@ -16455,8 +17484,11 @@
       <c r="G332" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H332" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>1047</v>
       </c>
@@ -16478,8 +17510,11 @@
       <c r="G333" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H333" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>1047</v>
       </c>
@@ -16501,8 +17536,11 @@
       <c r="G334" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H334" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>1047</v>
       </c>
@@ -16524,8 +17562,11 @@
       <c r="G335" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H335" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>1047</v>
       </c>
@@ -16547,8 +17588,11 @@
       <c r="G336" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H336" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>1047</v>
       </c>
@@ -16570,8 +17614,11 @@
       <c r="G337" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H337" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>1047</v>
       </c>
@@ -16593,8 +17640,11 @@
       <c r="G338" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H338" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>1049</v>
       </c>
@@ -16616,8 +17666,11 @@
       <c r="G339" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H339" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>1049</v>
       </c>
@@ -16639,8 +17692,11 @@
       <c r="G340" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H340" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>1049</v>
       </c>
@@ -16662,8 +17718,11 @@
       <c r="G341" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H341" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>1049</v>
       </c>
@@ -16685,8 +17744,11 @@
       <c r="G342" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H342" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>1049</v>
       </c>
@@ -16708,8 +17770,11 @@
       <c r="G343" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H343" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>1049</v>
       </c>
@@ -16731,8 +17796,11 @@
       <c r="G344" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H344" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>1049</v>
       </c>
@@ -16754,8 +17822,11 @@
       <c r="G345" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H345" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>1049</v>
       </c>
@@ -16777,8 +17848,11 @@
       <c r="G346" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H346" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>1049</v>
       </c>
@@ -16800,8 +17874,11 @@
       <c r="G347" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H347" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>1051</v>
       </c>
@@ -16823,8 +17900,11 @@
       <c r="G348" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H348" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>1051</v>
       </c>
@@ -16846,8 +17926,11 @@
       <c r="G349" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H349" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>1051</v>
       </c>
@@ -16869,8 +17952,11 @@
       <c r="G350" t="s">
         <v>1058</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H350" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>1051</v>
       </c>
@@ -16892,8 +17978,11 @@
       <c r="G351" t="s">
         <v>1141</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H351" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>1051</v>
       </c>
@@ -16915,8 +18004,11 @@
       <c r="G352" t="s">
         <v>1653</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H352" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>1051</v>
       </c>
@@ -16938,8 +18030,11 @@
       <c r="G353" t="s">
         <v>1131</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H353" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>1051</v>
       </c>
@@ -16960,6 +18055,9 @@
       </c>
       <c r="G354" t="s">
         <v>1658</v>
+      </c>
+      <c r="H354" t="s">
+        <v>2663</v>
       </c>
     </row>
   </sheetData>
@@ -29809,7 +30907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C504"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
+    <sheetView topLeftCell="A480" workbookViewId="0">
       <selection activeCell="E499" sqref="E499"/>
     </sheetView>
   </sheetViews>
